--- a/export_abstract.xlsx
+++ b/export_abstract.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -31,43 +31,43 @@
     <t>ABSTRACT OF QUOTATIONS</t>
   </si>
   <si>
-    <t>For the quotation opened on January 15, 1970 at 08:00 am</t>
+    <t>For the quotation opened on June 15, 2021 at 01:00 pm</t>
   </si>
   <si>
     <t>PR No.:</t>
   </si>
   <si>
-    <t>2020-11-0569</t>
+    <t>2021-06-0238</t>
   </si>
   <si>
     <t xml:space="preserve">PR Date: </t>
   </si>
   <si>
-    <t>November 24, 2020</t>
+    <t>June 07, 2021</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
   </si>
   <si>
-    <t>Shopping</t>
+    <t>Small Value Procurement</t>
   </si>
   <si>
     <t>RFQ No.:</t>
   </si>
   <si>
-    <t>2020-337</t>
+    <t>2021-0139</t>
   </si>
   <si>
     <t xml:space="preserve">RFQ Date: </t>
   </si>
   <si>
-    <t>November 26, 2020</t>
+    <t>June 11, 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Purpose: </t>
   </si>
   <si>
-    <t xml:space="preserve">Shirt of Participants in the Training on the Use of HRIS, DMS and FRS for Administrative Personnel   </t>
+    <t>Supplies to be used in support to Contact Tracers in Region IV-A CALABARZON</t>
   </si>
   <si>
     <t>ABC:</t>
@@ -94,7 +94,13 @@
     <t>ABC Per Item</t>
   </si>
   <si>
-    <t>347 School Office Supplies, Inc.</t>
+    <t xml:space="preserve">MCJ Valenzuela Construction Enterprises </t>
+  </si>
+  <si>
+    <t>ASR Computer Trading and Services</t>
+  </si>
+  <si>
+    <t>Arjelon Enterprises and Trading Corporation</t>
   </si>
   <si>
     <t>Quoted Price Per Item</t>
@@ -103,10 +109,19 @@
     <t>Total Price Per Item</t>
   </si>
   <si>
-    <t>Custom Polo Shirt</t>
-  </si>
-  <si>
-    <t>piece</t>
+    <t>Stereo Headset</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>543,520.00</t>
+  </si>
+  <si>
+    <t>568,800.00</t>
+  </si>
+  <si>
+    <t>657,280.00</t>
   </si>
   <si>
     <t>GRANDTOTAL</t>
@@ -121,31 +136,31 @@
     <t>price(s), Which certify as fair and reasonable in the locality, as follows:</t>
   </si>
   <si>
-    <t>For Item(s) 1 to 1 to 347 School Office Supplies, Inc.</t>
-  </si>
-  <si>
-    <t>MAYBELLINE M. MONTEIRO</t>
-  </si>
-  <si>
-    <t>JOYCE ARLA PEACH B. ESCALANTE</t>
-  </si>
-  <si>
-    <t>HANNAH GRACE S. GUERRERO</t>
-  </si>
-  <si>
-    <t>SSVPC Member</t>
-  </si>
-  <si>
-    <t>Alternate SSVPC Member</t>
-  </si>
-  <si>
-    <t>Noted By:</t>
-  </si>
-  <si>
-    <t>BEZALEEL O. SOLTURA</t>
-  </si>
-  <si>
-    <t>SSVPC Head</t>
+    <t xml:space="preserve">For Item(s) 1 to 1 to MCJ Valenzuela Construction Enterprises </t>
+  </si>
+  <si>
+    <t>DR. CARINA S. CRUZ</t>
+  </si>
+  <si>
+    <t>ATTY. JORDAN V. NADAL</t>
+  </si>
+  <si>
+    <t>DON AYER A. ABRAZALDO</t>
+  </si>
+  <si>
+    <t>BAC Chairman</t>
+  </si>
+  <si>
+    <t>BAC Vice Chairman</t>
+  </si>
+  <si>
+    <t>BAC Member</t>
+  </si>
+  <si>
+    <t>GILBERTO L. TUMAMAC</t>
+  </si>
+  <si>
+    <t>JAY-AR T. BELTRAN</t>
   </si>
   <si>
     <t>Eligibility Requirements:</t>
@@ -1150,7 +1165,7 @@
       </c>
       <c r="B12" s="45"/>
       <c r="C12" s="48">
-        <v>14000</v>
+        <v>682560</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="43" t="s">
@@ -1207,9 +1222,13 @@
         <v>25</v>
       </c>
       <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="K14" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
+      <c r="M14" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="N14" s="18"/>
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="27" s="1" customFormat="1">
@@ -1222,22 +1241,22 @@
       <c r="G15" s="19"/>
       <c r="H15" s="21"/>
       <c r="I15" s="49" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J15" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="12" s="6" customFormat="1">
@@ -1245,37 +1264,37 @@
         <v>1</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
       <c r="F16" s="55">
-        <v>40</v>
+        <v>1264</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H16" s="56">
-        <v>350</v>
+        <v>540</v>
       </c>
       <c r="I16" s="58">
-        <v>10</v>
-      </c>
-      <c r="J16" s="57">
-        <v>400</v>
-      </c>
-      <c r="K16" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="60">
-        <v>0</v>
-      </c>
-      <c r="M16" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="60">
-        <v>0</v>
+        <v>430</v>
+      </c>
+      <c r="J16" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="60">
+        <v>450</v>
+      </c>
+      <c r="L16" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="60">
+        <v>520</v>
+      </c>
+      <c r="N16" s="60" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1288,15 +1307,23 @@
       <c r="G17" s="53"/>
       <c r="H17" s="54"/>
       <c r="I17" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="62">
-        <v>400</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="J17" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="60" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="10"/>
@@ -1316,7 +1343,7 @@
     </row>
     <row r="19" spans="1:14" customHeight="1" ht="12.75" s="5" customFormat="1">
       <c r="A19" s="64" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1334,7 +1361,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1352,7 +1379,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1386,7 +1413,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1437,21 +1464,21 @@
     <row r="26" spans="1:14">
       <c r="A26" s="10"/>
       <c r="B26" s="65" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
       <c r="G26" s="67" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="12"/>
       <c r="L26" s="69" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
@@ -1459,21 +1486,21 @@
     <row r="27" spans="1:14">
       <c r="A27" s="10"/>
       <c r="B27" s="66" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
       <c r="G27" s="68" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="12"/>
       <c r="L27" s="70" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
@@ -1531,16 +1558,16 @@
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+      <c r="E31" s="67" t="s">
+        <v>46</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="67" t="s">
+        <v>47</v>
+      </c>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
@@ -1551,14 +1578,16 @@
       <c r="B32" s="9"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="E32" s="68" t="s">
+        <v>45</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="J32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="68" t="s">
+        <v>45</v>
+      </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -1582,7 +1611,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="71" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1600,7 +1629,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="71" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1618,7 +1647,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="71" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4311,8 +4340,10 @@
     <mergeCell ref="G27:K27"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="L27:M27"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/export_abstract.xlsx
+++ b/export_abstract.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -29,13 +29,13 @@
     <t>DILG IV-A CALABARZON, Andenson Bldg1. National Highway, Parian, Calamba City, Laguna</t>
   </si>
   <si>
-    <t>RFQ NO.2021-0169</t>
+    <t>RFQ NO.2021-0161</t>
   </si>
   <si>
     <t>MODE OF PROCUREMENT:</t>
   </si>
   <si>
-    <t>ABC: Php 280.00</t>
+    <t>ABC: Php 78,000.00</t>
   </si>
   <si>
     <t>Small Value Procurement</t>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">2021-_____ </t>
   </si>
   <si>
-    <t>16/35 MM Production Supply</t>
-  </si>
-  <si>
-    <t>347 School Office Supplies, Inc.</t>
-  </si>
-  <si>
-    <t>168 Paragon International General Contractror   Equipment</t>
+    <t>Emilio Jose Office Supplies Trading</t>
+  </si>
+  <si>
+    <t>Arjelon Enterprises and Trading Corporation</t>
+  </si>
+  <si>
+    <t>AJDV Enterprise</t>
   </si>
   <si>
     <t xml:space="preserve">Item </t>
@@ -71,25 +71,40 @@
     <t>Unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Cartolina color white </t>
+    <t xml:space="preserve">Internal Solid State Drive SATA III (2.5 inches) </t>
+  </si>
+  <si>
+    <t>10,000.00</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t>Vinyl sticker (12x24 inches) color white</t>
-  </si>
-  <si>
-    <t xml:space="preserve">round rugs, 6  inches </t>
+    <t>9,950.00</t>
+  </si>
+  <si>
+    <t>Teleprompter</t>
+  </si>
+  <si>
+    <t>7,000.00</t>
+  </si>
+  <si>
+    <t>Portable Studio Light Softbox Kit</t>
+  </si>
+  <si>
+    <t>11,000.00</t>
+  </si>
+  <si>
+    <t>set</t>
   </si>
   <si>
     <t>REF:</t>
   </si>
   <si>
-    <t>PR No. 2021-07-0282 date received:______</t>
-  </si>
-  <si>
-    <t>PUR: e</t>
+    <t>PR No. 2021-06-0262 date received:______</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUR: ADDITIONAL ICT SUPPLIES IN SUPPORT OF THE MANILA BAY PROGRAM  </t>
   </si>
   <si>
     <t>ELIGIBILITY REQUIREMENTS</t>
@@ -524,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -840,6 +855,36 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="167" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="3" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="4" fillId="3" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -851,9 +896,6 @@
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -891,39 +933,15 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="167" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="3" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="4" fillId="3" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="168" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -933,14 +951,14 @@
     <xf xfId="0" fontId="1" numFmtId="4" fillId="3" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="4" fillId="5" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="4" fillId="5" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="16" numFmtId="4" fillId="5" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="11" numFmtId="4" fillId="3" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1332,15 +1350,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" customHeight="1" ht="15">
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
       <c r="I1" s="94"/>
       <c r="J1" s="94"/>
       <c r="K1" s="94"/>
@@ -1348,15 +1366,15 @@
       <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:17" customHeight="1" ht="15">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
       <c r="I2" s="95"/>
       <c r="J2" s="95"/>
       <c r="K2" s="95"/>
@@ -1364,15 +1382,15 @@
       <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:17" customHeight="1" ht="15">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1395,18 +1413,18 @@
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="11.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
     </row>
     <row r="6" spans="1:17" customHeight="1" ht="18.75">
       <c r="A6" s="4"/>
@@ -1417,10 +1435,10 @@
       <c r="D6" s="2"/>
       <c r="E6" s="89"/>
       <c r="F6" s="89"/>
-      <c r="G6" s="110" t="s">
+      <c r="G6" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="111"/>
+      <c r="H6" s="120"/>
       <c r="I6" s="97"/>
       <c r="J6" s="88"/>
     </row>
@@ -1433,23 +1451,23 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="112" t="s">
+      <c r="G7" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="122" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="98"/>
       <c r="J7" s="88"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="15">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9" t="s">
         <v>8</v>
@@ -1465,13 +1483,13 @@
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="125" t="s">
+      <c r="F9" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="134" t="s">
+      <c r="G9" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="126" t="s">
+      <c r="H9" s="113" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1491,9 +1509,9 @@
       <c r="E10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="112"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="40.15" s="17" customFormat="1">
       <c r="A11" s="68"/>
@@ -1501,108 +1519,106 @@
       <c r="C11" s="70"/>
       <c r="D11" s="71"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-    </row>
-    <row r="12" spans="1:17" customHeight="1" ht="19" s="96" customFormat="1">
-      <c r="A12" s="127">
+      <c r="F11" s="112"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="112"/>
+    </row>
+    <row r="12" spans="1:17" customHeight="1" ht="30" s="96" customFormat="1">
+      <c r="A12" s="105">
         <v>1</v>
       </c>
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="133">
-        <v>10</v>
-      </c>
-      <c r="D12" s="130">
+      <c r="C12" s="134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="108">
+        <v>6</v>
+      </c>
+      <c r="E12" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="110">
+        <v>0</v>
+      </c>
+      <c r="H12" s="136">
+        <v>0</v>
+      </c>
+      <c r="I12" s="102"/>
+    </row>
+    <row r="13" spans="1:17" customHeight="1" ht="19" s="100" customFormat="1">
+      <c r="A13" s="105">
+        <v>2</v>
+      </c>
+      <c r="B13" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="108">
+        <v>1</v>
+      </c>
+      <c r="E13" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="110">
+        <v>0</v>
+      </c>
+      <c r="H13" s="136">
+        <v>0</v>
+      </c>
+      <c r="I13" s="102"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="19" s="17" customFormat="1">
+      <c r="A14" s="105">
         <v>3</v>
       </c>
-      <c r="E12" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="132">
-        <v>36</v>
-      </c>
-      <c r="G12" s="136">
-        <v>9</v>
-      </c>
-      <c r="H12" s="135">
-        <v>15</v>
-      </c>
-      <c r="I12" s="138">
+      <c r="B14" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="108">
+        <v>1</v>
+      </c>
+      <c r="E14" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="110">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" customHeight="1" ht="30" s="100" customFormat="1">
-      <c r="A13" s="127">
-        <v>2</v>
-      </c>
-      <c r="B13" s="128" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="129">
-        <v>250</v>
-      </c>
-      <c r="D13" s="130">
-        <v>1</v>
-      </c>
-      <c r="E13" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="132">
-        <v>12</v>
-      </c>
-      <c r="G13" s="136">
-        <v>3</v>
-      </c>
-      <c r="H13" s="135">
-        <v>5</v>
-      </c>
-      <c r="I13" s="102"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="19" s="17" customFormat="1">
-      <c r="A14" s="127">
-        <v>3</v>
-      </c>
-      <c r="B14" s="128" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="129">
-        <v>5</v>
-      </c>
-      <c r="D14" s="130">
-        <v>0</v>
-      </c>
-      <c r="E14" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="132">
-        <v>0</v>
-      </c>
-      <c r="G14" s="136">
-        <v>0</v>
-      </c>
-      <c r="H14" s="135">
+      <c r="H14" s="136">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" customHeight="1" ht="15.95" s="17" customFormat="1">
       <c r="A15" s="22"/>
       <c r="B15" s="103" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="137"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="139"/>
       <c r="H15" s="101"/>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="36" s="17" customFormat="1">
       <c r="A16" s="22"/>
       <c r="B16" s="104" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
@@ -1610,15 +1626,15 @@
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="114"/>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="36" s="17" customFormat="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="114" t="s">
-        <v>23</v>
+      <c r="B17" s="123" t="s">
+        <v>28</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
@@ -1629,7 +1645,7 @@
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="18" s="17" customFormat="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="115"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
       <c r="E18" s="25"/>
@@ -1640,7 +1656,7 @@
     <row r="19" spans="1:17" customHeight="1" ht="15" s="17" customFormat="1">
       <c r="A19" s="29"/>
       <c r="B19" s="30" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="32"/>
@@ -1651,8 +1667,8 @@
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="15" s="17" customFormat="1">
       <c r="A20" s="34"/>
-      <c r="B20" s="120" t="s">
-        <v>25</v>
+      <c r="B20" s="129" t="s">
+        <v>30</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="36"/>
@@ -1663,7 +1679,7 @@
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="15" s="17" customFormat="1">
       <c r="A21" s="90"/>
-      <c r="B21" s="120"/>
+      <c r="B21" s="129"/>
       <c r="C21" s="35"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
@@ -1673,7 +1689,7 @@
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="27" s="17" customFormat="1">
       <c r="A22" s="34"/>
-      <c r="B22" s="121"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="35"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
@@ -1684,25 +1700,25 @@
     <row r="23" spans="1:17" customHeight="1" ht="114" s="17" customFormat="1">
       <c r="A23" s="34"/>
       <c r="B23" s="61" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:17" customHeight="1" ht="54" s="84" customFormat="1">
       <c r="A24" s="81"/>
       <c r="B24" s="82" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C24" s="83"/>
       <c r="D24" s="83"/>
@@ -1714,7 +1730,7 @@
     <row r="25" spans="1:17" customHeight="1" ht="18" s="17" customFormat="1">
       <c r="A25" s="34"/>
       <c r="B25" s="62" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="44"/>
@@ -1726,43 +1742,43 @@
     <row r="26" spans="1:17" customHeight="1" ht="71.25" s="17" customFormat="1">
       <c r="A26" s="34"/>
       <c r="B26" s="63" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C26" s="41"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="41" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:17" customHeight="1" ht="28.5" s="17" customFormat="1">
       <c r="A27" s="46"/>
       <c r="B27" s="64" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C27" s="41"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="41" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="15" s="17" customFormat="1">
       <c r="A28" s="47"/>
       <c r="B28" s="48" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C28" s="49"/>
       <c r="D28" s="50"/>
@@ -1779,7 +1795,7 @@
     <row r="29" spans="1:17" customHeight="1" ht="17.25" s="17" customFormat="1">
       <c r="A29" s="47"/>
       <c r="B29" s="53" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C29" s="54"/>
       <c r="D29" s="50"/>
@@ -1811,7 +1827,7 @@
     <row r="31" spans="1:17" customHeight="1" ht="15" s="17" customFormat="1">
       <c r="A31" s="47"/>
       <c r="B31" s="59" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C31" s="56"/>
       <c r="D31" s="57"/>
@@ -1827,32 +1843,32 @@
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="15" s="67" customFormat="1">
       <c r="B33" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="117" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="117"/>
-      <c r="I33" s="118"/>
+        <v>40</v>
+      </c>
+      <c r="G33" s="126" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="126"/>
+      <c r="I33" s="127"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="15" s="67" customFormat="1">
       <c r="B34" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="119" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="119"/>
-      <c r="I34" s="118"/>
+        <v>42</v>
+      </c>
+      <c r="G34" s="128" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="128"/>
+      <c r="I34" s="127"/>
     </row>
     <row r="35" spans="1:17" customHeight="1" ht="15" s="67" customFormat="1">
       <c r="B35" s="74"/>
-      <c r="C35" s="107" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
+      <c r="C35" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
       <c r="G35" s="77"/>
       <c r="H35" s="77"/>
       <c r="I35" s="76"/>
@@ -1863,12 +1879,12 @@
     <row r="36" spans="1:17" customHeight="1" ht="15" s="67" customFormat="1">
       <c r="A36" s="91"/>
       <c r="B36" s="74"/>
-      <c r="C36" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
+      <c r="C36" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
       <c r="G36" s="75"/>
       <c r="H36" s="75"/>
       <c r="I36" s="75"/>
@@ -1880,16 +1896,16 @@
     <row r="37" spans="1:17" customHeight="1" ht="15" s="67" customFormat="1">
       <c r="A37" s="91"/>
       <c r="B37" s="86" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D37" s="92"/>
       <c r="E37" s="92"/>
       <c r="F37" s="92"/>
-      <c r="G37" s="107" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
+      <c r="G37" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
       <c r="J37" s="85"/>
       <c r="K37" s="85"/>
       <c r="L37" s="85"/>
@@ -1898,15 +1914,15 @@
     <row r="38" spans="1:17" customHeight="1" ht="15" s="67" customFormat="1">
       <c r="A38" s="91"/>
       <c r="B38" s="87" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C38" s="93"/>
       <c r="D38" s="93"/>
-      <c r="G38" s="108" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="108"/>
-      <c r="I38" s="108"/>
+      <c r="G38" s="118" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="118"/>
+      <c r="I38" s="118"/>
       <c r="J38" s="78"/>
       <c r="K38" s="78"/>
       <c r="L38" s="78"/>
@@ -1928,17 +1944,6 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="C35:F35"/>
@@ -1948,6 +1953,17 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.12" bottom="0.12" header="0.12" footer="0.12"/>

--- a/export_abstract.xlsx
+++ b/export_abstract.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -44,16 +44,16 @@
     <t>ABSTRACT OF QUOTATION/S</t>
   </si>
   <si>
-    <t>2022-2030</t>
-  </si>
-  <si>
-    <t>168 Paragon International General Contractror   Equipment</t>
+    <t>2022-0004</t>
   </si>
   <si>
     <t>1-Air Master Enterprise, Inc.</t>
   </si>
   <si>
-    <t>Aboy Autishop</t>
+    <t>16/35 MM Production Supply</t>
+  </si>
+  <si>
+    <t>ACCENT MICRO TECHNOLOGIES, INC.</t>
   </si>
   <si>
     <t xml:space="preserve">Item </t>
@@ -71,22 +71,19 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Vulcanizing of flat tire of Toyota Innova SLC 963sdaple</t>
+    <t>Vulcanizing of flat tire of Toyota Innova SLC 963sample</t>
   </si>
   <si>
     <t>lot</t>
   </si>
   <si>
-    <t>Ink cartriged for Canon CL811, tri colorsdaple</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>Glue, all purpose, 200gramssdaple</t>
-  </si>
-  <si>
-    <t>bottle</t>
+    <t>Load card (smart 100)sample</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>Token (round sugar coated peanut)sample</t>
   </si>
   <si>
     <t>ELIGIBILITY REQUIREMENTS</t>
@@ -122,33 +119,7 @@
     <t>REMARKS:</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Award is hereby recommended to be given to </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Cambria"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">Xyza Iel Kitchenette</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Cambria"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve"> which  has the lowest calculated and responsive bids </t>
-    </r>
+    <t>Award is hereby recommended to be given to 1-Air Master Enterprise, Inc. which  has the lowest calculated and responsive bids</t>
   </si>
   <si>
     <t>OTHERS</t>
@@ -654,8 +625,8 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="6" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="4" fillId="6" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,7 +996,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="8.88671875" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1235,9 +1206,15 @@
       <c r="E12" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="F12" s="77">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23">
+        <v>2</v>
+      </c>
+      <c r="H12" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:14" s="21" customFormat="1">
       <c r="A13" s="48">
@@ -1247,7 +1224,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="26">
-        <v>1472</v>
+        <v>100</v>
       </c>
       <c r="D13" s="27">
         <v>1</v>
@@ -1255,9 +1232,15 @@
       <c r="E13" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="F13" s="77">
+        <v>1</v>
+      </c>
+      <c r="G13" s="23">
+        <v>2</v>
+      </c>
+      <c r="H13" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:14" s="17" customFormat="1">
       <c r="A14" s="24">
@@ -1267,17 +1250,23 @@
         <v>21</v>
       </c>
       <c r="C14" s="26">
-        <v>47.82</v>
+        <v>43</v>
       </c>
       <c r="D14" s="27">
         <v>1</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+        <v>20</v>
+      </c>
+      <c r="F14" s="77">
+        <v>1</v>
+      </c>
+      <c r="G14" s="23">
+        <v>2</v>
+      </c>
+      <c r="H14" s="23">
+        <v>3</v>
+      </c>
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="14.4">
@@ -1286,7 +1275,7 @@
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="77"/>
+      <c r="F15" s="30"/>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
     </row>
@@ -1313,7 +1302,7 @@
     <row r="18" spans="1:14" customHeight="1" ht="14.4">
       <c r="A18" s="28"/>
       <c r="B18" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -1325,7 +1314,7 @@
     <row r="19" spans="1:14" customHeight="1" ht="69.6">
       <c r="A19" s="28"/>
       <c r="B19" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
@@ -1337,43 +1326,43 @@
     <row r="20" spans="1:14" customHeight="1" ht="69.6">
       <c r="A20" s="28"/>
       <c r="B20" s="54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H20" s="56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14" customHeight="1" ht="28.2">
       <c r="A21" s="28"/>
       <c r="B21" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
       <c r="F21" s="56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" s="56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H21" s="56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:14" customHeight="1" ht="14.4">
       <c r="A22" s="28"/>
       <c r="B22" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -1385,66 +1374,66 @@
     <row r="23" spans="1:14" customHeight="1" ht="69.6">
       <c r="A23" s="28"/>
       <c r="B23" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
       <c r="F23" s="56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" s="56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" s="56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:14" customHeight="1" ht="28.2">
       <c r="A24" s="28"/>
       <c r="B24" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" s="56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24" s="56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:14" customHeight="1" ht="14.4">
       <c r="A25" s="28"/>
       <c r="B25" s="55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" s="56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25" s="56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:14" customHeight="1" ht="14.4">
       <c r="B26" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:14" customHeight="1" ht="14.4">
       <c r="A27" s="34"/>
       <c r="B27" s="61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="62"/>
       <c r="D27" s="62"/>
@@ -1459,28 +1448,28 @@
     <row r="29" spans="1:14" customHeight="1" ht="14.4">
       <c r="A29" s="34"/>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:14" customHeight="1" ht="14.4">
       <c r="B31" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="33" t="s">
         <v>36</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:14" customHeight="1" ht="14.4">
       <c r="B32" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:14" customHeight="1" ht="14.4">
       <c r="C33" s="64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="64"/>
       <c r="E33" s="64"/>
@@ -1488,7 +1477,7 @@
     </row>
     <row r="34" spans="1:14" customHeight="1" ht="14.4">
       <c r="C34" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="62"/>
       <c r="E34" s="62"/>
@@ -1496,18 +1485,18 @@
     </row>
     <row r="35" spans="1:14" customHeight="1" ht="14.4">
       <c r="B35" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="52" t="s">
         <v>42</v>
-      </c>
-      <c r="H35" s="52" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:14" customHeight="1" ht="14.4">
       <c r="B36" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/export_abstract.xlsx
+++ b/export_abstract.xlsx
@@ -119,7 +119,33 @@
     <t>REMARKS:</t>
   </si>
   <si>
-    <t>Award is hereby recommended to be given to 1-Air Master Enterprise, Inc. which  has the lowest calculated and responsive bids</t>
+    <r>
+      <t xml:space="preserve">Award is hereby recommended to be given to </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Cambria"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Xyza Iel Kitchenette</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Cambria"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> which  has the lowest calculated and responsive bids </t>
+    </r>
   </si>
   <si>
     <t>OTHERS</t>
